--- a/inst/extdata/metadata.xlsx
+++ b/inst/extdata/metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,12 +1492,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hg19.Wold.hg19mitoExcludable.rds</t>
+          <t>hg19.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg19 by Barbara Wold, Caltech</t>
+          <t>hg19 centromere from the UCSC gap table</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF055QTV/</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1555,24 +1555,24 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.Wold.hg19mitoExcludable.rds</t>
+          <t>excluderanges/hg19.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>hg19;Barbara Wold;Caltech;exclusion;blacklisted</t>
+          <t>hg19;centromere;UCSC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hg19.Yeo.eCLIP_Excludableregions.hg19.rds</t>
+          <t>hg19.UCSC.clone.rds</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg19 by Gene Yeo, UCSD</t>
+          <t>hg19 clone from the UCSC gap table</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF039QTN/</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1630,24 +1630,24 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.Yeo.eCLIP_Excludableregions.hg19.rds</t>
+          <t>excluderanges/hg19.UCSC.clone.rds</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>hg19;Gene Yeo;UCSD;exclusion;blacklisted</t>
+          <t>hg19;clone;UCSC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hg38.Bernstein.Mint_Excludable_GRCh38.rds</t>
+          <t>hg19.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Bradley Bernstein, Broad</t>
+          <t>hg19 contig from the UCSC gap table</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>hg19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF023CZC/</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1705,24 +1705,24 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Bernstein.Mint_Excludable_GRCh38.rds</t>
+          <t>excluderanges/hg19.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>hg38;Bradley Bernstein;Broad;exclusion;blacklisted</t>
+          <t>hg19;contig;UCSC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hg38.Kundaje.GRCh38_unified_Excludable.rds</t>
+          <t>hg19.UCSC.heterochromatin.rds</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Anshul Kundaje, Stanford, superceded by hg38.Kundaje.GRCh38_unified_Excludable</t>
+          <t>hg19 heterochromatin from the UCSC gap table</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>hg19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF356LFX/</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1780,24 +1780,24 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Kundaje.GRCh38_unified_Excludable.rds</t>
+          <t>excluderanges/hg19.UCSC.heterochromatin.rds</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>hg38;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
+          <t>hg19;heterochromatin;UCSC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hg38.Kundaje.GRCh38.Excludable.rds</t>
+          <t>hg19.UCSC.scaffold.rds</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Anshul Kundaje, Stanford</t>
+          <t>hg19 scaffold from the UCSC gap table</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>hg19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF419RSJ/</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1855,24 +1855,24 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Kundaje.GRCh38.Excludable.rds</t>
+          <t>excluderanges/hg19.UCSC.scaffold.rds</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>hg38;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
+          <t>hg19;scaffold;UCSC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hg38.Kundaje.with_Boyle.v2.rds</t>
+          <t>hg19.UCSC.short_arm.rds</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Anshul Kundaje and Alan Boyle, Stanford &amp; University of Michigan</t>
+          <t>hg19 short_arm from the UCSC gap table</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>hg19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://github.com/Boyle-Lab/Blacklist/blob/master/lists/hg38-blacklist.v2.bed.gz?raw=true</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1930,24 +1930,24 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Kundaje.with_Boyle.v2.rds</t>
+          <t>excluderanges/hg19.UCSC.short_arm.rds</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>hg38;Anshul Kundaje;Stanford;Blacklist;Alan Boyle;Michigan;exclusion;blacklisted;blacklist</t>
+          <t>hg19;short_arm;UCSC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hg38.Lareau_full.Excludable.rds</t>
+          <t>hg19.UCSC.telomere.rds</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NUMT merged exclusion regions for hg38 by Caleb Lareau, Stanford</t>
+          <t>hg19 telomere from the UCSC gap table</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>hg19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/combinedBlacklist/hg38.full.blacklist.bed</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2005,24 +2005,24 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Lareau_full.Excludable.rds</t>
+          <t>excluderanges/hg19.UCSC.telomere.rds</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>hg38;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
+          <t>hg19;telomere;UCSC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hg38.Lareau.MT_excludable_set.rds</t>
+          <t>hg19.Wold.hg19mitoExcludable.rds</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NUMT exclusion regions for hg38 by Caleb Lareau, Stanford</t>
+          <t>Exclusion regions for hg19 by Barbara Wold, Caltech</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>hg19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/encodeBlacklist/hg38.encode.blacklist.bed</t>
+          <t>https://www.encodeproject.org/files/ENCFF055QTV/</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2080,24 +2080,24 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Lareau.MT_excludable_set.</t>
+          <t>excluderanges/hg19.Wold.hg19mitoExcludable.rds</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>hg38;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
+          <t>hg19;Barbara Wold;Caltech;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hg38.Reddy.wgEncodeDacMapabilityConsensusExcludable.hg38.rds</t>
+          <t>hg19.Yeo.eCLIP_Excludableregions.hg19.rds</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Tim Reddy, Duke</t>
+          <t>Exclusion regions for hg19 by Gene Yeo, UCSD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>hg19</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF220FIN/</t>
+          <t>https://www.encodeproject.org/files/ENCFF039QTN/</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2155,24 +2155,24 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Reddy.wgEncodeDacMapabilityConsensusExcludable.hg38.rds</t>
+          <t>excluderanges/hg19.Yeo.eCLIP_Excludableregions.hg19.rds</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>hg38;Tim Reddy;Duke;exclusion;blacklisted</t>
+          <t>hg19;Gene Yeo;UCSD;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hg38.Wimberley.peakpass_excludable_set.rds</t>
+          <t>hg38.Bernstein.Mint_Excludable_GRCh38.rds</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Charles Wimberley, UNC</t>
+          <t>Exclusion regions for hg38 by Bradley Bernstein, Broad</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/ewimberley/peakPass/main/excludedlists/hg38/peakPass60Perc_sorted.bed</t>
+          <t>https://www.encodeproject.org/files/ENCFF023CZC/</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2230,24 +2230,24 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Wimberley.peakpass_excludable_set.rds</t>
+          <t>excluderanges/hg38.Bernstein.Mint_Excludable_GRCh38.rds</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>hg38;Charles Wimberley;UNC;Google;exclusion;peakpass;blacklisted</t>
+          <t>hg38;Bradley Bernstein;Broad;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hg38.Wold.hg38mitoExcludable.rds</t>
+          <t>hg38.Kundaje.GRCh38_unified_Excludable.rds</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Barbara Wold, Caltech</t>
+          <t>Exclusion regions for hg38 by Anshul Kundaje, Stanford, superceded by hg38.Kundaje.GRCh38_unified_Excludable</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF940NTE/</t>
+          <t>https://www.encodeproject.org/files/ENCFF356LFX/</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2305,24 +2305,24 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Wold.hg38mitoExcludable.rds</t>
+          <t>excluderanges/hg38.Kundaje.GRCh38_unified_Excludable.rds</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>hg38;Barbara Wold;Caltech;exclusion;blacklisted</t>
+          <t>hg38;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hg38.Yeo.eCLIP_Excludableregions.hg38liftover.rds.fixed.rds</t>
+          <t>hg38.Kundaje.GRCh38.Excludable.rds</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Exclusion regions for hg38 by Gene Yeo, UCSD</t>
+          <t>Exclusion regions for hg38 by Anshul Kundaje, Stanford</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF269URO/</t>
+          <t>https://www.encodeproject.org/files/ENCFF419RSJ/</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2380,24 +2380,24 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.Yeo.eCLIP_Excludableregions.hg38liftover.rds.fixed.rds</t>
+          <t>excluderanges/hg38.Kundaje.GRCh38.Excludable.rds</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>hg38;Gene Yeo;UCSD;exclusion;blacklisted</t>
+          <t>hg38;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mm10.Boyle_from_Excludable.v2.Excludable.rds</t>
+          <t>hg38.Kundaje.with_Boyle.v2.rds</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Exclusion regions for mm10 by Anshul Kundaje and Alan Boyle, Stanford &amp; University of Michigan</t>
+          <t>Exclusion regions for hg38 by Anshul Kundaje and Alan Boyle, Stanford &amp; University of Michigan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2427,15 +2427,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I28">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://github.com/Boyle-Lab/Blacklist/blob/master/lists/mm10-blacklist.v2.bed.gz?raw=true</t>
+          <t>https://github.com/Boyle-Lab/Blacklist/blob/master/lists/hg38-blacklist.v2.bed.gz?raw=true</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2455,24 +2455,24 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Boyle_from_Excludable.v2.Excludable.rds</t>
+          <t>excluderanges/hg38.Kundaje.with_Boyle.v2.rds</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>mm10;Blacklist;Alan Boyle;Anshul Kundaje;Michigan;Stanford;exclusion;blacklisted</t>
+          <t>hg38;Anshul Kundaje;Stanford;Blacklist;Alan Boyle;Michigan;exclusion;blacklisted;blacklist</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mm10.Hardison.Excludable.full.rds</t>
+          <t>hg38.Lareau_full.Excludable.rds</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Exclusion regions for mm10 by Ross Hardison, PennState</t>
+          <t>NUMT merged exclusion regions for hg38 by Caleb Lareau, Stanford</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2502,15 +2502,15 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I29">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF790DJT/</t>
+          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/combinedBlacklist/hg38.full.blacklist.bed</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Hardison.Excludable.full.rds</t>
+          <t>excluderanges/hg38.Lareau_full.Excludable.rds</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>mm10;Ross Hardison;PennState;exclusion;blacklisted</t>
+          <t>hg38;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mm10.Hardison.psuExcludable.mm10.rds</t>
+          <t>hg38.Lareau.MT_excludable_set.rds</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Exclusion regions for mm10 by Ross Hardison, PennState</t>
+          <t>NUMT exclusion regions for hg38 by Caleb Lareau, Stanford</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2577,15 +2577,15 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I30">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF226BDM/</t>
+          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/encodeBlacklist/hg38.encode.blacklist.bed</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2605,24 +2605,24 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Hardison.psuExcludable.mm10.rds</t>
+          <t>excluderanges/hg38.Lareau.MT_excludable_set.</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>mm10;Ross Hardison;PennState;exclusion;blacklisted</t>
+          <t>hg38;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mm10.Kundaje.anshul.Excludable.mm10.rds</t>
+          <t>hg38.Reddy.wgEncodeDacMapabilityConsensusExcludable.hg38.rds</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Exclusion regions for mm10 by Anshul Kundaje, Stanford</t>
+          <t>Exclusion regions for hg38 by Tim Reddy, Duke</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2652,15 +2652,15 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I31">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF999QPV/</t>
+          <t>https://www.encodeproject.org/files/ENCFF220FIN/</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2680,24 +2680,24 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Kundaje.anshul.Excludable.mm10.rds</t>
+          <t>excluderanges/hg38.Reddy.wgEncodeDacMapabilityConsensusExcludable.hg38.rds</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>mm10;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
+          <t>hg38;Tim Reddy;Duke;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mm10.Kundaje.mm10.Excludable.rds</t>
+          <t>hg38.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Exclusion regions for mm10 by Anshul Kundaje, Stanford</t>
+          <t>hg38 centromere from the UCSC gap table</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2727,15 +2727,15 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapien</t>
         </is>
       </c>
       <c r="I32">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF547MET/</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2755,24 +2755,24 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Kundaje.mm10.Excludable.rds</t>
+          <t>excluderanges/hg38.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>mm10;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
+          <t>hg38;centromere;UCSC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mm10.Lareau_full.Excludable.rds</t>
+          <t>hg38.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NUMT merged exclusion regions for mm10 by Caleb Lareau, Stanford</t>
+          <t>hg38 contig from the UCSC gap table</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2802,15 +2802,15 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I33">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/combinedBlacklist/mm10.full.blacklist.bed</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2830,24 +2830,24 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Lareau_full.Excludable.rds</t>
+          <t>excluderanges/hg38.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>mm10;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
+          <t>hg38;contig;UCSC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mm10.Lareau_MT.excludable.rds</t>
+          <t>hg38.UCSC.heterochromatin.rds</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NUMT exclusion regions for mm10 by Caleb Lareau, Stanford</t>
+          <t>hg38 heterochromatin from the UCSC gap table</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2877,15 +2877,15 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I34">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/peaks/mm10_peaks.narrowPeak</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2905,24 +2905,24 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Lareau_MT.excludable.rds</t>
+          <t>excluderanges/hg38.UCSC.heterochromatin.rds</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>mm10;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
+          <t>hg38;heterochromatin;UCSC</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mm10.Wold.mm10mitoExcludable.rds</t>
+          <t>hg38.UCSC.scaffold.rds</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Exclusion regions for mm10 by Barbara Wold, Caltech</t>
+          <t>hg38 scaffold from the UCSC gap table</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2952,15 +2952,15 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I35">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF759PJK/</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2980,24 +2980,24 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.Wold.mm10mitoExcludable.rds</t>
+          <t>excluderanges/hg38.UCSC.scaffold.rds</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>mm10;Barbara Wold;Caltech;exclusion;blacklisted</t>
+          <t>hg38;scaffold;UCSC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mm9.Lareau_full.Excludable.rds</t>
+          <t>hg38.UCSC.short_arm.rds</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NUMT merged exclusion regions for mm9 by Caleb Lareau, Stanford</t>
+          <t>hg38 short_arm from the UCSC gap table</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>mm9</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3027,15 +3027,15 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I36">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/combinedBlacklist/mm9.full.blacklist.bed</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3055,24 +3055,24 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>excluderanges/mm9.Lareau_full.Excludable.rds</t>
+          <t>excluderanges/hg38.UCSC.short_arm.rds</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>mm9;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
+          <t>hg38;short_arm;UCSC</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mm9.Lareau_MT.excludable.rds</t>
+          <t>hg38.UCSC.telomere.rds</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NUMT exclusion regions for mm9 by Caleb Lareau, Stanford</t>
+          <t>hg38 telomere from the UCSC gap table</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>mm9</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3102,15 +3102,15 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I37">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/peaks/mm9_peaks.narrowPeak</t>
+          <t>UCSC</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3130,24 +3130,24 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>excluderanges/mm9.Lareau_MT.excludable.rds</t>
+          <t>excluderanges/hg38.UCSC.telomere.rds</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>mm9;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
+          <t>hg38;telomere;UCSC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mm9.Wold.mm9mitoExcludable.rds</t>
+          <t>hg38.Wimberley.peakpass_excludable_set.rds</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Exclusion regions for mm9 by Barbara Wold, Caltech</t>
+          <t>Exclusion regions for hg38 by Charles Wimberley, UNC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>mm9</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3177,15 +3177,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I38">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.encodeproject.org/files/ENCFF299EZH/</t>
+          <t>https://raw.githubusercontent.com/ewimberley/peakPass/main/excludedlists/hg38/peakPass60Perc_sorted.bed</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3205,24 +3205,24 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>excluderanges/mm9.Wold.mm9mitoExcludable.rds</t>
+          <t>excluderanges/hg38.Wimberley.peakpass_excludable_set.rds</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>mm9;Barbara Wold;Caltech;exclusion;blacklisted</t>
+          <t>hg38;Charles Wimberley;UNC;Google;exclusion;peakpass;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>T2T.Dozmorov-Ogata.excludable.rds</t>
+          <t>hg38.Wold.hg38mitoExcludable.rds</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Exclusion regions for T2T by Jonathan Ogata, VCU</t>
+          <t>Exclusion regions for hg38 by Barbara Wold, Caltech</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T2T</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>New, ExcludeRanges</t>
+          <t>https://www.encodeproject.org/files/ENCFF940NTE/</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3280,24 +3280,24 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>excluderanges/T2T.Dozmorov-Ogata.excludable.rds</t>
+          <t>excluderanges/hg38.Wold.hg38mitoExcludable.rds</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>T2T;Jonathan Ogata;Mikhail Dozmorov;VCU;exclusion;blacklisted</t>
+          <t>hg38;Barbara Wold;Caltech;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>T2T.Lareau_MT.excludable.rds</t>
+          <t>hg38.Yeo.eCLIP_Excludableregions.hg38liftover.rds.fixed.rds</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NUMT exclusion regions for T2T by Caleb Lareau, Stanford</t>
+          <t>Exclusion regions for hg38 by Gene Yeo, UCSD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T2T</t>
+          <t>hg38</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/peaks/chm13v2.0_peaks.narrowPeak</t>
+          <t>https://www.encodeproject.org/files/ENCFF269URO/</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3355,24 +3355,24 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>excluderanges/T2T.Lareau_MT.excludable.rds</t>
+          <t>excluderanges/hg38.Yeo.eCLIP_Excludableregions.hg38liftover.rds.fixed.rds</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>T2T;NUMT;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
+          <t>hg38;Gene Yeo;UCSD;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TAIR10.Klasfeld_from_Excludable.Excludable.rds</t>
+          <t>mm10.Boyle_from_Excludable.v2.Excludable.rds</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Exclusion regions for TAIR10 from Blacklist by Sammy Klasfeld, University of Pennsylvania</t>
+          <t>Exclusion regions for mm10 by Anshul Kundaje and Alan Boyle, Stanford &amp; University of Michigan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TAIR10</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3402,15 +3402,15 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Arabidopsis thaliana</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I41">
-        <v>3702</v>
+        <v>10090</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/sklasfeld/GreenscreenProject/main/data/arabidopsis_blacklist_20inputs.bed</t>
+          <t>https://github.com/Boyle-Lab/Blacklist/blob/master/lists/mm10-blacklist.v2.bed.gz?raw=true</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3430,24 +3430,24 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>excluderanges/TAIR10.Klasfeld_from_Excludable.Excludable.rds</t>
+          <t>excluderanges/mm10.Boyle_from_Excludable.v2.Excludable.rds</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>TAIR10;Blacklist;Sammy Klasfeld;University Pennsylvania;exclusion;blacklisted</t>
+          <t>mm10;Blacklist;Alan Boyle;Anshul Kundaje;Michigan;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TAIR10.Klasfeld_from_Greenscreen.Excludable.rds</t>
+          <t>mm10.Hardison.Excludable.full.rds</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Exclusion regions for TAIR10 from Greenscreen by Sammy Klasfeld, University of Pennsylvania</t>
+          <t>Exclusion regions for mm10 by Ross Hardison, PennState</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TAIR10</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3477,15 +3477,15 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arabidopsis thaliana</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I42">
-        <v>3702</v>
+        <v>10090</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://github.com/sklasfeld/GreenscreenProject/blob/main/data/arabidopsis_greenscreen_20inputs.bed</t>
+          <t>https://www.encodeproject.org/files/ENCFF790DJT/</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3505,24 +3505,24 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>excluderanges/TAIR10.Klasfeld_from_Greenscreen.Excludable.rds</t>
+          <t>excluderanges/mm10.Hardison.Excludable.full.rds</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>TAIR10;Greenscreen;Sammy Klasfeld;University Pennsylvania;exclusion;blacklisted</t>
+          <t>mm10;Ross Hardison;PennState;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TAIR10.Wimberley_peakpass.Excludable.rds</t>
+          <t>mm10.Hardison.psuExcludable.mm10.rds</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Exclusion regions for TAIR10 by Charles Wimberley, UNC</t>
+          <t>Exclusion regions for mm10 by Ross Hardison, PennState</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TAIR10</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3552,15 +3552,15 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arabidopsis thaliana</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I43">
-        <v>3702</v>
+        <v>10090</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/ewimberley/peakPass/main/excludedlists/tair10/predicted_excluded_list_sorted_0.6.bed</t>
+          <t>https://www.encodeproject.org/files/ENCFF226BDM/</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3580,24 +3580,24 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>excluderanges/TAIR10.Wimberley_peakpass.Excludable.rds</t>
+          <t>excluderanges/mm10.Hardison.psuExcludable.mm10.rds</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>TAIR10;Peakpass;Charles Wimberley;UNC;exclusion;blacklisted</t>
+          <t>mm10;Ross Hardison;PennState;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hg19.UCSC.centromere.rds</t>
+          <t>mm10.Kundaje.anshul.Excludable.mm10.rds</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hg19 centromere from the UCSC gap table</t>
+          <t>Exclusion regions for mm10 by Anshul Kundaje, Stanford</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>hg19</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3627,15 +3627,15 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I44">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://www.encodeproject.org/files/ENCFF999QPV/</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3655,24 +3655,24 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.UCSC.centromere.rds</t>
+          <t>excluderanges/mm10.Kundaje.anshul.Excludable.mm10.rds</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>hg19;centromere;UCSC</t>
+          <t>mm10;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hg19.UCSC.clone.rds</t>
+          <t>mm10.Kundaje.mm10.Excludable.rds</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hg19 clone from the UCSC gap table</t>
+          <t>Exclusion regions for mm10 by Anshul Kundaje, Stanford</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>hg19</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3702,15 +3702,15 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I45">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://www.encodeproject.org/files/ENCFF547MET/</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3730,24 +3730,24 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.UCSC.clone.rds</t>
+          <t>excluderanges/mm10.Kundaje.mm10.Excludable.rds</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>hg19;clone;UCSC</t>
+          <t>mm10;Anshul Kundaje;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hg19.UCSC.contig.rds</t>
+          <t>mm10.Lareau_full.Excludable.rds</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hg19 contig from the UCSC gap table</t>
+          <t>NUMT merged exclusion regions for mm10 by Caleb Lareau, Stanford</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>hg19</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3777,15 +3777,15 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I46">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/combinedBlacklist/mm10.full.blacklist.bed</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3805,24 +3805,24 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.UCSC.contig.rds</t>
+          <t>excluderanges/mm10.Lareau_full.Excludable.rds</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>hg19;contig;UCSC</t>
+          <t>mm10;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>hg19.UCSC.heterochromatin.rds</t>
+          <t>mm10.Lareau_MT.excludable.rds</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>hg19 heterochromatin from the UCSC gap table</t>
+          <t>NUMT exclusion regions for mm10 by Caleb Lareau, Stanford</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>hg19</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3852,15 +3852,15 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I47">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/peaks/mm10_peaks.narrowPeak</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3880,24 +3880,24 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.UCSC.heterochromatin.rds</t>
+          <t>excluderanges/mm10.Lareau_MT.excludable.rds</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>hg19;heterochromatin;UCSC</t>
+          <t>mm10;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>hg19.UCSC.scaffold.rds</t>
+          <t>mm10.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hg19 scaffold from the UCSC gap table</t>
+          <t>mm10 centromere from the UCSC gap table</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>hg19</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3927,11 +3927,11 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I48">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3955,24 +3955,24 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.UCSC.scaffold.rds</t>
+          <t>excluderanges/mm10.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>hg19;scaffold;UCSC</t>
+          <t>mm10;centromere;UCSC</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hg19.UCSC.short_arm.rds</t>
+          <t>mm10.UCSC.clone.rds</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hg19 short_arm from the UCSC gap table</t>
+          <t>mm10 clone from the UCSC gap table</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>hg19</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4002,11 +4002,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I49">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4030,24 +4030,24 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.UCSC.short_arm.rds</t>
+          <t>excluderanges/mm10.UCSC.clone.rds</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>hg19;short_arm;UCSC</t>
+          <t>mm10;clone;UCSC</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>hg19.UCSC.telomere.rds</t>
+          <t>mm10.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>hg19 telomere from the UCSC gap table</t>
+          <t>mm10 contig from the UCSC gap table</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>hg19</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4077,11 +4077,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I50">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4105,24 +4105,24 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>excluderanges/hg19.UCSC.telomere.rds</t>
+          <t>excluderanges/mm10.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>hg19;telomere;UCSC</t>
+          <t>mm10;contig;UCSC</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hg38.UCSC.contig.rds</t>
+          <t>mm10.UCSC.fragment.rds</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>hg38 contig from the UCSC gap table</t>
+          <t>mm10 fragment from the UCSC gap table</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4152,11 +4152,11 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I51">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4180,24 +4180,24 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.UCSC.contig.rds</t>
+          <t>excluderanges/mm10.UCSC.fragment.rds</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>hg38;contig;UCSC</t>
+          <t>mm10;fragment;UCSC</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hg38.UCSC.heterochromatin.rds</t>
+          <t>mm10.UCSC.other.rds</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hg38 heterochromatin from the UCSC gap table</t>
+          <t>mm10 other from the UCSC gap table</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4227,11 +4227,11 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I52">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4255,24 +4255,24 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.UCSC.heterochromatin.rds</t>
+          <t>excluderanges/mm10.UCSC.other.rds</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>hg38;heterochromatin;UCSC</t>
+          <t>mm10;other;UCSC</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>hg38.UCSC.scaffold.rds</t>
+          <t>mm10.UCSC.scaffold.rds</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>hg38 scaffold from the UCSC gap table</t>
+          <t>mm10 scaffold from the UCSC gap table</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4302,11 +4302,11 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I53">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4330,24 +4330,24 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.UCSC.scaffold.rds</t>
+          <t>excluderanges/mm10.UCSC.scaffold.rds</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>hg38;scaffold;UCSC</t>
+          <t>mm10;scaffold;UCSC</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hg38.UCSC.short_arm.rds</t>
+          <t>mm10.UCSC.short_arm.rds</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>hg38 short_arm from the UCSC gap table</t>
+          <t>mm10 short_arm from the UCSC gap table</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4377,11 +4377,11 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I54">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4405,24 +4405,24 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.UCSC.short_arm.rds</t>
+          <t>excluderanges/mm10.UCSC.short_arm.rds</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>hg38;short_arm;UCSC</t>
+          <t>mm10;short_arm;UCSC</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hg38.UCSC.telomere.rds</t>
+          <t>mm10.UCSC.telomere.rds</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>hg38 telomere from the UCSC gap table</t>
+          <t>mm10 telomere from the UCSC gap table</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>hg38</t>
+          <t>mm10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4452,11 +4452,11 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Mus musculus</t>
         </is>
       </c>
       <c r="I55">
-        <v>9606</v>
+        <v>10090</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4480,24 +4480,24 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>excluderanges/hg38.UCSC.telomere.rds</t>
+          <t>excluderanges/mm10.UCSC.telomere.rds</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>hg38;telomere;UCSC</t>
+          <t>mm10;telomere;UCSC</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mm10.UCSC.centromere.rds</t>
+          <t>mm10.Wold.mm10mitoExcludable.rds</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mm10 centromere from the UCSC gap table</t>
+          <t>Exclusion regions for mm10 by Barbara Wold, Caltech</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://www.encodeproject.org/files/ENCFF759PJK/</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4555,24 +4555,24 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.centromere.rds</t>
+          <t>excluderanges/mm10.Wold.mm10mitoExcludable.rds</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>mm10;centromere;UCSC</t>
+          <t>mm10;Barbara Wold;Caltech;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mm10.UCSC.clone.rds</t>
+          <t>mm9.Lareau_full.Excludable.rds</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mm10 clone from the UCSC gap table</t>
+          <t>NUMT merged exclusion regions for mm9 by Caleb Lareau, Stanford</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>mm9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/combinedBlacklist/mm9.full.blacklist.bed</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4630,24 +4630,24 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.clone.rds</t>
+          <t>excluderanges/mm9.Lareau_full.Excludable.rds</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>mm10;clone;UCSC</t>
+          <t>mm9;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mm10.UCSC.contig.rds</t>
+          <t>mm9.Lareau_MT.excludable.rds</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mm10 contig from the UCSC gap table</t>
+          <t>NUMT exclusion regions for mm9 by Caleb Lareau, Stanford</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>mm9</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/peaks/mm9_peaks.narrowPeak</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4705,24 +4705,24 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.contig.rds</t>
+          <t>excluderanges/mm9.Lareau_MT.excludable.rds</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>mm10;contig;UCSC</t>
+          <t>mm9;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mm10.UCSC.fragment.rds</t>
+          <t>mm9.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mm10 fragment from the UCSC gap table</t>
+          <t>mm9 centromere from the UCSC gap table</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>mm9</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4780,24 +4780,24 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.fragment.rds</t>
+          <t>excluderanges/mm9.UCSC.centromere.rds</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>mm10;fragment;UCSC</t>
+          <t>mm9;centromere;UCSC</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mm10.UCSC.other.rds</t>
+          <t>mm9.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mm10 other from the UCSC gap table</t>
+          <t>mm9 contig from the UCSC gap table</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>mm9</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4855,24 +4855,24 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.other.rds</t>
+          <t>excluderanges/mm9.UCSC.contig.rds</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>mm10;other;UCSC</t>
+          <t>mm9;contig;UCSC</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mm10.UCSC.short_arm.rds</t>
+          <t>mm9.UCSC.fragment.rds</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mm10 short_arm from the UCSC gap table</t>
+          <t>mm9 fragment from the UCSC gap table</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>mm9</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4930,24 +4930,24 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.short_arm.rds</t>
+          <t>excluderanges/mm9.UCSC.fragment.rds</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>mm10;short_arm;UCSC</t>
+          <t>mm9;fragment;UCSC</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mm10.UCSC.telomere.rds</t>
+          <t>mm9.Wold.mm9mitoExcludable.rds</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mm10 telomere from the UCSC gap table</t>
+          <t>Exclusion regions for mm9 by Barbara Wold, Caltech</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>mm9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://www.encodeproject.org/files/ENCFF299EZH/</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5005,24 +5005,24 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.telomere.rds</t>
+          <t>excluderanges/mm9.Wold.mm9mitoExcludable.rds</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>mm10;telomere;UCSC</t>
+          <t>mm9;Barbara Wold;Caltech;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mm9.UCSC.centromere.rds</t>
+          <t>T2T.Dozmorov-Ogata.excludable.rds</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mm9 centromere from the UCSC gap table</t>
+          <t>Exclusion regions for T2T by Jonathan Ogata, VCU</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>mm9</t>
+          <t>T2T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5052,15 +5052,15 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I63">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>New, ExcludeRanges</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5080,24 +5080,24 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>excluderanges/mm9.UCSC.centromere.rds</t>
+          <t>excluderanges/T2T.Dozmorov-Ogata.excludable.rds</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>mm9;centromere;UCSC</t>
+          <t>T2T;Jonathan Ogata;Mikhail Dozmorov;VCU;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mm9.UCSC.contig.rds</t>
+          <t>T2T.Lareau_MT.excludable.rds</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mm9 contig from the UCSC gap table</t>
+          <t>NUMT exclusion regions for T2T by Caleb Lareau, Stanford</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>mm9</t>
+          <t>T2T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5127,15 +5127,15 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I64">
-        <v>10090</v>
+        <v>9606</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://raw.githubusercontent.com/caleblareau/mitoblacklist/master/peaks/chm13v2.0_peaks.narrowPeak</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5155,24 +5155,24 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>excluderanges/mm9.UCSC.contig.rds</t>
+          <t>excluderanges/T2T.Lareau_MT.excludable.rds</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>mm9;contig;UCSC</t>
+          <t>T2T;NUMT;NUMT;Caleb Lareau;Stanford;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mm9.UCSC.fragment.rds</t>
+          <t>TAIR10.Klasfeld_from_Excludable.Excludable.rds</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mm9 fragment from the UCSC gap table</t>
+          <t>Exclusion regions for TAIR10 from Blacklist by Sammy Klasfeld, University of Pennsylvania</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>mm9</t>
+          <t>TAIR10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5202,15 +5202,15 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Arabidopsis thaliana</t>
         </is>
       </c>
       <c r="I65">
-        <v>10090</v>
+        <v>3702</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://raw.githubusercontent.com/sklasfeld/GreenscreenProject/main/data/arabidopsis_blacklist_20inputs.bed</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5230,24 +5230,24 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>excluderanges/mm9.UCSC.fragment.rds</t>
+          <t>excluderanges/TAIR10.Klasfeld_from_Excludable.Excludable.rds</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>mm9;fragment;UCSC</t>
+          <t>TAIR10;Blacklist;Sammy Klasfeld;University Pennsylvania;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mm10.UCSC.scaffold.rds</t>
+          <t>TAIR10.Klasfeld_from_Greenscreen.Excludable.rds</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mm10 scaffold from the UCSC gap table</t>
+          <t>Exclusion regions for TAIR10 from Greenscreen by Sammy Klasfeld, University of Pennsylvania</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>mm10</t>
+          <t>TAIR10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5277,15 +5277,15 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Mus musculus</t>
+          <t>Arabidopsis thaliana</t>
         </is>
       </c>
       <c r="I66">
-        <v>10090</v>
+        <v>3702</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>UCSC</t>
+          <t>https://github.com/sklasfeld/GreenscreenProject/blob/main/data/arabidopsis_greenscreen_20inputs.bed</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5305,12 +5305,87 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>excluderanges/mm10.UCSC.scaffold.rds</t>
+          <t>excluderanges/TAIR10.Klasfeld_from_Greenscreen.Excludable.rds</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>mm10;scaffold;UCSC</t>
+          <t>TAIR10;Greenscreen;Sammy Klasfeld;University Pennsylvania;exclusion;blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TAIR10.Wimberley_peakpass.Excludable.rds</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Exclusion regions for TAIR10 by Charles Wimberley, UNC</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TAIR10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>RDS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1MFn6LPZD1zZRQz7biR0Fyl-mzkx4CIxS?usp=sharing</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>August 22 2021</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Arabidopsis thaliana</t>
+        </is>
+      </c>
+      <c r="I67">
+        <v>3702</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/ewimberley/peakPass/main/excludedlists/tair10/predicted_excluded_list_sorted_0.6.bed</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Mikhail Dozmorov &lt;mikhail.dozmorov@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>GRanges</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>RDS</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>excluderanges/TAIR10.Wimberley_peakpass.Excludable.rds</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>TAIR10;Peakpass;Charles Wimberley;UNC;exclusion;blacklisted</t>
         </is>
       </c>
     </row>
